--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H2">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I2">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J2">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.52059044173811</v>
+        <v>7.221999999999999</v>
       </c>
       <c r="N2">
-        <v>2.52059044173811</v>
+        <v>21.666</v>
       </c>
       <c r="O2">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="P2">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="Q2">
-        <v>1.625058191735439</v>
+        <v>4.900232922666666</v>
       </c>
       <c r="R2">
-        <v>1.625058191735439</v>
+        <v>44.10209630399999</v>
       </c>
       <c r="S2">
-        <v>0.001944516366593119</v>
+        <v>0.005082155684779276</v>
       </c>
       <c r="T2">
-        <v>0.001944516366593119</v>
+        <v>0.005082155684779277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H3">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I3">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J3">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>190.705679584673</v>
+        <v>191.3804573333333</v>
       </c>
       <c r="N3">
-        <v>190.705679584673</v>
+        <v>574.141372</v>
       </c>
       <c r="O3">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644182</v>
       </c>
       <c r="P3">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644183</v>
       </c>
       <c r="Q3">
-        <v>122.9504887774807</v>
+        <v>129.8544472140409</v>
       </c>
       <c r="R3">
-        <v>122.9504887774807</v>
+        <v>1168.690024926368</v>
       </c>
       <c r="S3">
-        <v>0.1471204163175944</v>
+        <v>0.1346753363600468</v>
       </c>
       <c r="T3">
-        <v>0.1471204163175944</v>
+        <v>0.1346753363600468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H4">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I4">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J4">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.281806503161</v>
+        <v>133.9193763333333</v>
       </c>
       <c r="N4">
-        <v>115.281806503161</v>
+        <v>401.758129</v>
       </c>
       <c r="O4">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="P4">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="Q4">
-        <v>74.3237143622741</v>
+        <v>90.86626099301955</v>
       </c>
       <c r="R4">
-        <v>74.3237143622741</v>
+        <v>817.7963489371759</v>
       </c>
       <c r="S4">
-        <v>0.08893446384777993</v>
+        <v>0.09423970087711789</v>
       </c>
       <c r="T4">
-        <v>0.08893446384777993</v>
+        <v>0.0942397008771179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H5">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I5">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J5">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>133.445931852834</v>
+        <v>144.2634733333333</v>
       </c>
       <c r="N5">
-        <v>133.445931852834</v>
+        <v>432.79042</v>
       </c>
       <c r="O5">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="P5">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="Q5">
-        <v>86.03436763081584</v>
+        <v>97.88488252094221</v>
       </c>
       <c r="R5">
-        <v>86.03436763081584</v>
+        <v>880.9639426884798</v>
       </c>
       <c r="S5">
-        <v>0.1029472278583157</v>
+        <v>0.1015188910422326</v>
       </c>
       <c r="T5">
-        <v>0.1029472278583157</v>
+        <v>0.1015188910422326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H6">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I6">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J6">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>144.602362159017</v>
+        <v>147.2274146666667</v>
       </c>
       <c r="N6">
-        <v>144.602362159017</v>
+        <v>441.682244</v>
       </c>
       <c r="O6">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="P6">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="Q6">
-        <v>93.22706667441234</v>
+        <v>99.89596018674844</v>
       </c>
       <c r="R6">
-        <v>93.22706667441234</v>
+        <v>899.0636416807359</v>
       </c>
       <c r="S6">
-        <v>0.111553886426841</v>
+        <v>0.1036046306291271</v>
       </c>
       <c r="T6">
-        <v>0.111553886426841</v>
+        <v>0.1036046306291271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H7">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I7">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J7">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>119.305745803163</v>
+        <v>125.4360933333333</v>
       </c>
       <c r="N7">
-        <v>119.305745803163</v>
+        <v>376.30828</v>
       </c>
       <c r="O7">
-        <v>0.1690213188108265</v>
+        <v>0.1673711277178193</v>
       </c>
       <c r="P7">
-        <v>0.1690213188108265</v>
+        <v>0.1673711277178193</v>
       </c>
       <c r="Q7">
-        <v>76.91800156349242</v>
+        <v>85.11022905603554</v>
       </c>
       <c r="R7">
-        <v>76.91800156349242</v>
+        <v>765.9920615043198</v>
       </c>
       <c r="S7">
-        <v>0.09203874278872348</v>
+        <v>0.08826997435758846</v>
       </c>
       <c r="T7">
-        <v>0.09203874278872348</v>
+        <v>0.08826997435758849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H8">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I8">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J8">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.52059044173811</v>
+        <v>7.221999999999999</v>
       </c>
       <c r="N8">
-        <v>2.52059044173811</v>
+        <v>21.666</v>
       </c>
       <c r="O8">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="P8">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="Q8">
-        <v>1.359222888048206</v>
+        <v>0.3262394059999999</v>
       </c>
       <c r="R8">
-        <v>1.359222888048206</v>
+        <v>2.936154654</v>
       </c>
       <c r="S8">
-        <v>0.001626422466038059</v>
+        <v>0.0003383511514590708</v>
       </c>
       <c r="T8">
-        <v>0.001626422466038059</v>
+        <v>0.0003383511514590708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H9">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I9">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J9">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>190.705679584673</v>
+        <v>191.3804573333333</v>
       </c>
       <c r="N9">
-        <v>190.705679584673</v>
+        <v>574.141372</v>
       </c>
       <c r="O9">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644182</v>
       </c>
       <c r="P9">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644183</v>
       </c>
       <c r="Q9">
-        <v>102.837621011342</v>
+        <v>8.645229399118666</v>
       </c>
       <c r="R9">
-        <v>102.837621011342</v>
+        <v>77.807064592068</v>
       </c>
       <c r="S9">
-        <v>0.1230537085841232</v>
+        <v>0.008966186389573099</v>
       </c>
       <c r="T9">
-        <v>0.1230537085841232</v>
+        <v>0.0089661863895731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H10">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I10">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J10">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.281806503161</v>
+        <v>133.9193763333333</v>
       </c>
       <c r="N10">
-        <v>115.281806503161</v>
+        <v>401.758129</v>
       </c>
       <c r="O10">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="P10">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="Q10">
-        <v>62.16546225835502</v>
+        <v>6.049539987105667</v>
       </c>
       <c r="R10">
-        <v>62.16546225835502</v>
+        <v>54.445859883951</v>
       </c>
       <c r="S10">
-        <v>0.07438611085619377</v>
+        <v>0.006274131152736635</v>
       </c>
       <c r="T10">
-        <v>0.07438611085619377</v>
+        <v>0.006274131152736635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H11">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I11">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J11">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>133.445931852834</v>
+        <v>144.2634733333333</v>
       </c>
       <c r="N11">
-        <v>133.445931852834</v>
+        <v>432.79042</v>
       </c>
       <c r="O11">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="P11">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="Q11">
-        <v>71.96042716333476</v>
+        <v>6.516813880886667</v>
       </c>
       <c r="R11">
-        <v>71.96042716333476</v>
+        <v>58.65132492798</v>
       </c>
       <c r="S11">
-        <v>0.08610659549163821</v>
+        <v>0.006758752743813112</v>
       </c>
       <c r="T11">
-        <v>0.08610659549163821</v>
+        <v>0.006758752743813112</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1160,49 +1160,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H12">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I12">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J12">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.602362159017</v>
+        <v>147.2274146666667</v>
       </c>
       <c r="N12">
-        <v>144.602362159017</v>
+        <v>441.682244</v>
       </c>
       <c r="O12">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="P12">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="Q12">
-        <v>77.9765078283959</v>
+        <v>6.650704002737333</v>
       </c>
       <c r="R12">
-        <v>77.9765078283959</v>
+        <v>59.856336024636</v>
       </c>
       <c r="S12">
-        <v>0.0933053329740559</v>
+        <v>0.006897613580560616</v>
       </c>
       <c r="T12">
-        <v>0.0933053329740559</v>
+        <v>0.006897613580560617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.045173</v>
+      </c>
+      <c r="H13">
+        <v>0.135519</v>
+      </c>
+      <c r="I13">
+        <v>0.03511172383202523</v>
+      </c>
+      <c r="J13">
+        <v>0.03511172383202523</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>125.4360933333333</v>
+      </c>
+      <c r="N13">
+        <v>376.30828</v>
+      </c>
+      <c r="O13">
+        <v>0.1673711277178193</v>
+      </c>
+      <c r="P13">
+        <v>0.1673711277178193</v>
+      </c>
+      <c r="Q13">
+        <v>5.666324644146666</v>
+      </c>
+      <c r="R13">
+        <v>50.99692179732</v>
+      </c>
+      <c r="S13">
+        <v>0.005876688813882693</v>
+      </c>
+      <c r="T13">
+        <v>0.005876688813882694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.688588</v>
+      </c>
+      <c r="I14">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J14">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.221999999999999</v>
+      </c>
+      <c r="N14">
+        <v>21.666</v>
+      </c>
+      <c r="O14">
+        <v>0.009636415263395938</v>
+      </c>
+      <c r="P14">
+        <v>0.009636415263395938</v>
+      </c>
+      <c r="Q14">
+        <v>4.064994178666666</v>
+      </c>
+      <c r="R14">
+        <v>36.58494760799999</v>
+      </c>
+      <c r="S14">
+        <v>0.004215908427157591</v>
+      </c>
+      <c r="T14">
+        <v>0.004215908427157591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.688588</v>
+      </c>
+      <c r="I15">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J15">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>191.3804573333333</v>
+      </c>
+      <c r="N15">
+        <v>574.141372</v>
+      </c>
+      <c r="O15">
+        <v>0.2553616117644182</v>
+      </c>
+      <c r="P15">
+        <v>0.2553616117644183</v>
+      </c>
+      <c r="Q15">
+        <v>107.7209145625262</v>
+      </c>
+      <c r="R15">
+        <v>969.488231062736</v>
+      </c>
+      <c r="S15">
+        <v>0.1117200890147984</v>
+      </c>
+      <c r="T15">
+        <v>0.1117200890147984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.688588</v>
+      </c>
+      <c r="I16">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J16">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>133.9193763333333</v>
+      </c>
+      <c r="N16">
+        <v>401.758129</v>
+      </c>
+      <c r="O16">
+        <v>0.1786904904684296</v>
+      </c>
+      <c r="P16">
+        <v>0.1786904904684296</v>
+      </c>
+      <c r="Q16">
+        <v>75.37821728131688</v>
+      </c>
+      <c r="R16">
+        <v>678.4039555318519</v>
+      </c>
+      <c r="S16">
+        <v>0.07817665843857502</v>
+      </c>
+      <c r="T16">
+        <v>0.07817665843857502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.53924781493297</v>
-      </c>
-      <c r="H13">
-        <v>0.53924781493297</v>
-      </c>
-      <c r="I13">
-        <v>0.4554607463941522</v>
-      </c>
-      <c r="J13">
-        <v>0.4554607463941522</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>119.305745803163</v>
-      </c>
-      <c r="N13">
-        <v>119.305745803163</v>
-      </c>
-      <c r="O13">
-        <v>0.1690213188108265</v>
-      </c>
-      <c r="P13">
-        <v>0.1690213188108265</v>
-      </c>
-      <c r="Q13">
-        <v>64.33536273330401</v>
-      </c>
-      <c r="R13">
-        <v>64.33536273330401</v>
-      </c>
-      <c r="S13">
-        <v>0.076982576022103</v>
-      </c>
-      <c r="T13">
-        <v>0.076982576022103</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.688588</v>
+      </c>
+      <c r="I17">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J17">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>144.2634733333333</v>
+      </c>
+      <c r="N17">
+        <v>432.79042</v>
+      </c>
+      <c r="O17">
+        <v>0.1924927632760795</v>
+      </c>
+      <c r="P17">
+        <v>0.1924927632760795</v>
+      </c>
+      <c r="Q17">
+        <v>81.20052330299555</v>
+      </c>
+      <c r="R17">
+        <v>730.8047097269599</v>
+      </c>
+      <c r="S17">
+        <v>0.08421511949003384</v>
+      </c>
+      <c r="T17">
+        <v>0.08421511949003384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.688588</v>
+      </c>
+      <c r="I18">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J18">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.2274146666667</v>
+      </c>
+      <c r="N18">
+        <v>441.682244</v>
+      </c>
+      <c r="O18">
+        <v>0.1964475915098574</v>
+      </c>
+      <c r="P18">
+        <v>0.1964475915098574</v>
+      </c>
+      <c r="Q18">
+        <v>82.8688152257191</v>
+      </c>
+      <c r="R18">
+        <v>745.8193370314719</v>
+      </c>
+      <c r="S18">
+        <v>0.08594534730016963</v>
+      </c>
+      <c r="T18">
+        <v>0.08594534730016964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.688588</v>
+      </c>
+      <c r="I19">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J19">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>125.4360933333333</v>
+      </c>
+      <c r="N19">
+        <v>376.30828</v>
+      </c>
+      <c r="O19">
+        <v>0.1673711277178193</v>
+      </c>
+      <c r="P19">
+        <v>0.1673711277178193</v>
+      </c>
+      <c r="Q19">
+        <v>70.60329398984888</v>
+      </c>
+      <c r="R19">
+        <v>635.4296459086398</v>
+      </c>
+      <c r="S19">
+        <v>0.07322446454634809</v>
+      </c>
+      <c r="T19">
+        <v>0.07322446454634811</v>
       </c>
     </row>
   </sheetData>
